--- a/biology/Médecine/Yogathérapie/Yogathérapie.xlsx
+++ b/biology/Médecine/Yogathérapie/Yogathérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yogath%C3%A9rapie</t>
+          <t>Yogathérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La yogathérapie est une pratique pseudomédicale fondée sur l'usage « santé » de méthodes et principes issus du Yoga. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yogath%C3%A9rapie</t>
+          <t>Yogathérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la plupart des pratiques pseudomédicales, la yogathérapie fait l'objet d'un suivi par la Miviludes en raison de suspicions de dérives sectaires. Des alertes ont en effet été émises concernant des adeptes abandonnant leurs traitements médicaux, ou subissant une perte de poids très importante à la suite d'un régime drastique. En outre, des dérives complotistes ont pu être identifiées[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des pratiques pseudomédicales, la yogathérapie fait l'objet d'un suivi par la Miviludes en raison de suspicions de dérives sectaires. Des alertes ont en effet été émises concernant des adeptes abandonnant leurs traitements médicaux, ou subissant une perte de poids très importante à la suite d'un régime drastique. En outre, des dérives complotistes ont pu être identifiées,.
 </t>
         </is>
       </c>
